--- a/specific_variables/surface-moisture-profile.xlsx
+++ b/specific_variables/surface-moisture-profile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/specific_variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885D208-A985-0647-A31D-F79A8E802D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC07470-0CEA-8647-8B23-CB0336345187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41320" yWindow="-300" windowWidth="16480" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Variable</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>altitude</t>
   </si>
   <si>
     <t>type</t>
@@ -128,6 +125,12 @@
 good_data, 
 suspect_data_instrument_error_code 
   </t>
+  </si>
+  <si>
+    <t>height_above_snow_surface</t>
+  </si>
+  <si>
+    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -199,14 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -214,9 +210,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -231,6 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +547,7 @@
   <dimension ref="A1:C978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -574,89 +570,99 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
+      <c r="C7" s="14">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
-        <v>-1E+20</v>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
-        <v>0.5</v>
+      <c r="C10" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -664,23 +670,23 @@
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -688,85 +694,85 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="11">
-        <v>150</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
         <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
         <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -774,1010 +780,1003 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>10</v>
       </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
+      <c r="C31" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="10">
-        <v>-1E+20</v>
+        <v>14</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="11">
-        <v>0</v>
+      <c r="C33" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="11">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
         <v>17</v>
       </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="5" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>31</v>
+      <c r="A43" s="3"/>
+      <c r="B43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="12"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="8"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="8"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="8"/>
     </row>
     <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="7"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="8"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="5"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="7"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="12"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="8"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="5"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="7"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="12"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="7"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="8"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="5"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="7"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="12"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="7"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="10"/>
     </row>
     <row r="98" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="8"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="5"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="7"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="12"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="7"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="8"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="5"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="14"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="7"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="12"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="7"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
     </row>
     <row r="116" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="8"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="5"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="14"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="7"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="5"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="12"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="5"/>
     </row>
     <row r="124" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="7"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="10"/>
     </row>
     <row r="125" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="8"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="5"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="14"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="7"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="12"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="7"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="10"/>
     </row>
     <row r="134" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="8"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="5"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="14"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="7"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="12"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="5"/>
     </row>
     <row r="142" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="7"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="10"/>
     </row>
     <row r="143" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="5"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="14"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="7"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="12"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="7"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="10"/>
     </row>
     <row r="152" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="8"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="5"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="14"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="7"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="12"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
       <c r="C159" s="5"/>
     </row>
     <row r="160" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="7"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="10"/>
     </row>
     <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="8"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="5"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="14"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="7"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="12"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
       <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="7"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="10"/>
     </row>
     <row r="170" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="8"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="5"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="14"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="7"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="12"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
       <c r="C177" s="5"/>
     </row>
     <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="7"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="10"/>
     </row>
     <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="8"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="5"/>
-      <c r="B180" s="13"/>
-      <c r="C180" s="14"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="7"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
+      <c r="A182" s="4"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="12"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="7"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="10"/>
     </row>
     <row r="188" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="8"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="5"/>
-      <c r="B189" s="13"/>
-      <c r="C189" s="14"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="7"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
+      <c r="A191" s="4"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="12"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
       <c r="C195" s="5"/>
     </row>
     <row r="196" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="7"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="10"/>
     </row>
     <row r="197" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="8"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="5"/>
-      <c r="B198" s="13"/>
-      <c r="C198" s="14"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="7"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="8"/>
     </row>
     <row r="202" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="12"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
       <c r="C204" s="5"/>
     </row>
     <row r="205" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="7"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="10"/>
     </row>
     <row r="206" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="8"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="5"/>
-      <c r="B207" s="13"/>
-      <c r="C207" s="14"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
+      <c r="A220" s="3"/>
     </row>
     <row r="221" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
+      <c r="A221" s="3"/>
     </row>
     <row r="222" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="223" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/surface-moisture-profile.xlsx
+++ b/specific_variables/surface-moisture-profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC07470-0CEA-8647-8B23-CB0336345187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7807C7-C944-4C45-9F2D-C6912113342D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41320" yWindow="-300" windowWidth="16480" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Variable</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>valid_min</t>
-  </si>
-  <si>
-    <t>valid_max</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -128,9 +122,6 @@
   </si>
   <si>
     <t>height_above_snow_surface</t>
-  </si>
-  <si>
-    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -546,8 +537,8 @@
   </sheetPr>
   <dimension ref="A1:C978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="A28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -571,7 +562,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13"/>
     </row>
@@ -608,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -632,290 +623,270 @@
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="2"/>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>35</v>
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="7">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C36" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
-      <c r="B43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -925,17 +896,17 @@
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
@@ -945,12 +916,12 @@
     <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
@@ -960,7 +931,7 @@
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="8"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
@@ -968,44 +939,44 @@
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="8"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
@@ -1013,44 +984,44 @@
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="8"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
@@ -1058,44 +1029,44 @@
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3"/>
+      <c r="A77" s="4"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="8"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
@@ -1103,44 +1074,44 @@
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="3"/>
+      <c r="A86" s="4"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="4"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="5"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
     </row>
     <row r="92" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="4"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="8"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
@@ -1148,44 +1119,44 @@
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="3"/>
+      <c r="A95" s="4"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="5"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="10"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
     </row>
     <row r="101" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="8"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
@@ -1193,89 +1164,89 @@
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="3"/>
+      <c r="A104" s="4"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="5"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="10"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="10"/>
     </row>
     <row r="110" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
+      <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="8"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="3"/>
+      <c r="A113" s="4"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="5"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="10"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="3"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="10"/>
     </row>
     <row r="119" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="4"/>
+      <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="8"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
@@ -1283,44 +1254,44 @@
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="3"/>
+      <c r="A122" s="4"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="4"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="5"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="10"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="10"/>
     </row>
     <row r="128" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="4"/>
+      <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="8"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
@@ -1328,44 +1299,44 @@
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="3"/>
+      <c r="A131" s="4"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="4"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="5"/>
+      <c r="C132" s="8"/>
     </row>
     <row r="133" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="10"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="10"/>
     </row>
     <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="4"/>
+      <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="8"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
@@ -1373,44 +1344,44 @@
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="3"/>
+      <c r="A140" s="4"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="5"/>
+      <c r="C141" s="8"/>
     </row>
     <row r="142" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="10"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="10"/>
     </row>
     <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="4"/>
+      <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="8"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
@@ -1418,44 +1389,44 @@
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="3"/>
+      <c r="A149" s="4"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="5"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="10"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="10"/>
     </row>
     <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="4"/>
+      <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="8"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
@@ -1463,44 +1434,44 @@
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="3"/>
+      <c r="A158" s="4"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="4"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="5"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="10"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="10"/>
     </row>
     <row r="164" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="4"/>
+      <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="8"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
@@ -1508,44 +1479,44 @@
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="3"/>
+      <c r="A167" s="4"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="4"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="5"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="10"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="10"/>
     </row>
     <row r="173" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="4"/>
+      <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="8"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="3"/>
@@ -1553,44 +1524,44 @@
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="3"/>
+      <c r="A176" s="4"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="4"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="5"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="10"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
+      <c r="C180" s="5"/>
     </row>
     <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="10"/>
     </row>
     <row r="182" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="4"/>
+      <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="8"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="3"/>
@@ -1598,44 +1569,44 @@
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="3"/>
+      <c r="A185" s="4"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="4"/>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="5"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="3"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="10"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="10"/>
     </row>
     <row r="191" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="4"/>
+      <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="8"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="3"/>
@@ -1643,44 +1614,44 @@
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="3"/>
+      <c r="A194" s="4"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="4"/>
+      <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="5"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="3"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="10"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="10"/>
     </row>
     <row r="200" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="4"/>
+      <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
-      <c r="C201" s="8"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="3"/>
@@ -1690,17 +1661,17 @@
     <row r="203" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
-      <c r="C203" s="4"/>
+      <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="5"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="3"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="10"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="3"/>
@@ -1744,40 +1715,16 @@
     </row>
     <row r="214" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-    </row>
-    <row r="216" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-    </row>
-    <row r="217" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-    </row>
-    <row r="218" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-    </row>
-    <row r="220" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="3"/>
-    </row>
-    <row r="221" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="3"/>
-    </row>
+    </row>
+    <row r="216" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="222" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="223" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="224" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/surface-moisture-profile.xlsx
+++ b/specific_variables/surface-moisture-profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7807C7-C944-4C45-9F2D-C6912113342D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB455EC-2B31-FE4B-8FA8-B349A71785ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41320" yWindow="-300" windowWidth="16480" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="1280" windowWidth="22600" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -112,16 +112,16 @@
     <t>Height above snow surface</t>
   </si>
   <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_data,   
-good_data, 
-suspect_data_instrument_error_code 
-  </t>
-  </si>
-  <si>
     <t>height_above_snow_surface</t>
+  </si>
+  <si>
+    <t>0b,1b, 2b, 3b</t>
+  </si>
+  <si>
+    <t>not_used
+good_data 
+bad_data_temperature_outside_sensor_operational_range
+bad_data_unspecified_instrument_error</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -212,12 +212,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,13 +538,13 @@
   </sheetPr>
   <dimension ref="A1:C978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="A28:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="23" width="8.6640625" customWidth="1"/>
@@ -561,80 +562,80 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -817,11 +818,11 @@
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,8 +830,8 @@
       <c r="B37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>31</v>
+      <c r="C37" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/specific_variables/surface-moisture-profile.xlsx
+++ b/specific_variables/surface-moisture-profile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB455EC-2B31-FE4B-8FA8-B349A71785ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE439B0A-3EBC-3E40-8B57-85CAB7641A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1280" windowWidth="22600" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,13 +115,10 @@
     <t>height_above_snow_surface</t>
   </si>
   <si>
-    <t>0b,1b, 2b, 3b</t>
-  </si>
-  <si>
-    <t>not_used
-good_data 
-bad_data_temperature_outside_sensor_operational_range
-bad_data_unspecified_instrument_error</t>
+    <t>0, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>not_used good_data bad_data_temperature_outside_sensor_operational_range bad_data_unspecified_instrument_error</t>
   </si>
 </sst>
 </file>
@@ -538,8 +535,8 @@
   </sheetPr>
   <dimension ref="A1:C978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
